--- a/Objects/PGS7-0-22_20250326-BurnFile/PGS7_FW_ChangeNote.xlsx
+++ b/Objects/PGS7-0-22_20250326-BurnFile/PGS7_FW_ChangeNote.xlsx
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
